--- a/The effective engineer.xlsx
+++ b/The effective engineer.xlsx
@@ -194,6 +194,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
               <a:t>Number of hours required to complete</a:t>
             </a:r>
           </a:p>
@@ -218,6 +224,7 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$1000</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -236,15 +243,16 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$1000</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3884428"/>
-        <c:axId val="801362279"/>
+        <c:axId val="2142305264"/>
+        <c:axId val="61727625"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3884428"/>
+        <c:axId val="2142305264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -265,6 +273,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
                   <a:t>Evaluation #</a:t>
                 </a:r>
               </a:p>
@@ -272,6 +286,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr rot="5400000"/>
           <a:lstStyle/>
@@ -286,10 +304,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="801362279"/>
+        <c:crossAx val="61727625"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="801362279"/>
+        <c:axId val="61727625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,6 +346,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
                   <a:t>Total (hours)</a:t>
                 </a:r>
               </a:p>
@@ -336,11 +360,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -356,7 +380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3884428"/>
+        <c:crossAx val="2142305264"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
